--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/企业单位数.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/企业单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>753</v>
-      </c>
-      <c r="C2" t="n">
-        <v>852</v>
-      </c>
-      <c r="D2" t="n">
-        <v>148</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>598</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1410</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99</v>
-      </c>
-      <c r="I2" t="n">
-        <v>279</v>
-      </c>
-      <c r="J2" t="n">
-        <v>249</v>
-      </c>
-      <c r="K2" t="n">
-        <v>971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>356</v>
-      </c>
-      <c r="M2" t="n">
-        <v>251</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1438</v>
-      </c>
-      <c r="O2" t="n">
-        <v>530</v>
-      </c>
-      <c r="P2" t="n">
-        <v>142</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1260</v>
-      </c>
-      <c r="R2" t="n">
-        <v>623</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>261</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6</v>
-      </c>
-      <c r="W2" t="n">
-        <v>111</v>
-      </c>
-      <c r="X2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>373</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1066</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>549</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>173</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>22128</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1865</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>718</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1537</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2145</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>197</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>550</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1466</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>403</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>620</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1119</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1341</v>
-      </c>
-      <c r="D3" t="n">
-        <v>289</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1036</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2394</v>
-      </c>
-      <c r="H3" t="n">
-        <v>205</v>
-      </c>
-      <c r="I3" t="n">
-        <v>445</v>
-      </c>
-      <c r="J3" t="n">
-        <v>430</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1682</v>
-      </c>
-      <c r="L3" t="n">
-        <v>498</v>
-      </c>
-      <c r="M3" t="n">
-        <v>452</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2381</v>
-      </c>
-      <c r="O3" t="n">
-        <v>769</v>
-      </c>
-      <c r="P3" t="n">
-        <v>181</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2128</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1016</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>401</v>
-      </c>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
-      <c r="V3" t="n">
-        <v>16</v>
-      </c>
-      <c r="W3" t="n">
-        <v>212</v>
-      </c>
-      <c r="X3" t="n">
-        <v>52</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>635</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1897</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>939</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>234</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>36218</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3409</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1253</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2548</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3171</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>270</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>815</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2278</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>595</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>950</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1759</v>
-      </c>
-      <c r="D4" t="n">
-        <v>387</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1357</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3201</v>
-      </c>
-      <c r="H4" t="n">
-        <v>250</v>
-      </c>
-      <c r="I4" t="n">
-        <v>636</v>
-      </c>
-      <c r="J4" t="n">
-        <v>650</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2377</v>
-      </c>
-      <c r="L4" t="n">
-        <v>657</v>
-      </c>
-      <c r="M4" t="n">
-        <v>631</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3269</v>
-      </c>
-      <c r="O4" t="n">
-        <v>969</v>
-      </c>
-      <c r="P4" t="n">
-        <v>219</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1298</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>505</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>15</v>
-      </c>
-      <c r="W4" t="n">
-        <v>347</v>
-      </c>
-      <c r="X4" t="n">
-        <v>87</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>901</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2641</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1214</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>348</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>49176</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>4830</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1660</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>3482</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>4202</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>367</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1093</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>3029</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>740</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1243</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>233</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
